--- a/HR_Data_Project.xlsx
+++ b/HR_Data_Project.xlsx
@@ -1177,7 +1177,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:pivotFmts>
       <c:pivotFmt>
@@ -1242,24 +1241,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="162195712"/>
-        <c:axId val="162672640"/>
+        <c:axId val="167709312"/>
+        <c:axId val="167723392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="162195712"/>
+        <c:axId val="167709312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162672640"/>
+        <c:crossAx val="167723392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="162672640"/>
+        <c:axId val="167723392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1267,20 +1266,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162195712"/>
+        <c:crossAx val="167709312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1388,24 +1386,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="45647360"/>
-        <c:axId val="45648896"/>
+        <c:axId val="168617856"/>
+        <c:axId val="168627200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="45647360"/>
+        <c:axId val="168617856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45648896"/>
+        <c:crossAx val="168627200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45648896"/>
+        <c:axId val="168627200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1413,7 +1411,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45647360"/>
+        <c:crossAx val="168617856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1426,7 +1424,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1617,25 +1615,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="94805376"/>
-        <c:axId val="94827648"/>
+        <c:axId val="168669184"/>
+        <c:axId val="168670720"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="94805376"/>
+        <c:axId val="168669184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94827648"/>
+        <c:crossAx val="168670720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94827648"/>
+        <c:axId val="168670720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1643,7 +1641,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94805376"/>
+        <c:crossAx val="168669184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1656,7 +1654,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1959,24 +1957,24 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="95469952"/>
-        <c:axId val="95471488"/>
+        <c:axId val="168448384"/>
+        <c:axId val="168449920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="95469952"/>
+        <c:axId val="168448384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95471488"/>
+        <c:crossAx val="168449920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95471488"/>
+        <c:axId val="168449920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1994,7 +1992,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95469952"/>
+        <c:crossAx val="168448384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2007,7 +2005,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2085,7 +2083,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:pivotFmts>
       <c:pivotFmt>
@@ -2213,24 +2210,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="163216384"/>
-        <c:axId val="163222272"/>
+        <c:axId val="167646336"/>
+        <c:axId val="167647872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="163216384"/>
+        <c:axId val="167646336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163222272"/>
+        <c:crossAx val="167647872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="163222272"/>
+        <c:axId val="167647872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2238,20 +2235,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163216384"/>
+        <c:crossAx val="167646336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2329,7 +2325,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:pivotFmts>
       <c:pivotFmt>
@@ -2392,13 +2387,12 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2428,7 +2422,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:pivotFmts>
       <c:pivotFmt>
@@ -2493,24 +2486,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="163296000"/>
-        <c:axId val="163297536"/>
+        <c:axId val="168154240"/>
+        <c:axId val="168155776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="163296000"/>
+        <c:axId val="168154240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163297536"/>
+        <c:crossAx val="168155776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="163297536"/>
+        <c:axId val="168155776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2518,20 +2511,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163296000"/>
+        <c:crossAx val="168154240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2698,25 +2690,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="163372416"/>
-        <c:axId val="163447936"/>
+        <c:axId val="168226816"/>
+        <c:axId val="168228352"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="163372416"/>
+        <c:axId val="168226816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163447936"/>
+        <c:crossAx val="168228352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="163447936"/>
+        <c:axId val="168228352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2724,7 +2716,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163372416"/>
+        <c:crossAx val="168226816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2737,7 +2729,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2992,24 +2984,24 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="163533184"/>
-        <c:axId val="163534720"/>
+        <c:axId val="168391424"/>
+        <c:axId val="168392960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="163533184"/>
+        <c:axId val="168391424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163534720"/>
+        <c:crossAx val="168392960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="163534720"/>
+        <c:axId val="168392960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3027,7 +3019,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163533184"/>
+        <c:crossAx val="168391424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3040,7 +3032,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3147,24 +3139,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="45679360"/>
-        <c:axId val="45680896"/>
+        <c:axId val="168510592"/>
+        <c:axId val="168512128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="45679360"/>
+        <c:axId val="168510592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45680896"/>
+        <c:crossAx val="168512128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45680896"/>
+        <c:axId val="168512128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3172,7 +3164,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45679360"/>
+        <c:crossAx val="168510592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3185,7 +3177,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3344,7 +3336,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3508,24 +3500,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="45035520"/>
-        <c:axId val="45060480"/>
+        <c:axId val="168595840"/>
+        <c:axId val="168597376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="45035520"/>
+        <c:axId val="168595840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45060480"/>
+        <c:crossAx val="168597376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45060480"/>
+        <c:axId val="168597376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3533,7 +3525,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45035520"/>
+        <c:crossAx val="168595840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3546,7 +3538,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -16142,7 +16134,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
